--- a/template_honorer.xlsx
+++ b/template_honorer.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F92112-A95F-4B28-8554-CFA9A468E20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C600CA-CFE5-43AB-BD2E-D2987A78DE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,6 @@
     <t>Jalan Prof. M. Yamin No. 57 Selong 83612 Komplek Kantor Bupati Lantai 4 Blok E</t>
   </si>
   <si>
-    <t>email : perkimlotim@gmail.com Kode Pos 83612</t>
-  </si>
-  <si>
     <t>DAFTAR HADIR NON ASN</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
   </si>
   <si>
     <t>NIP. 19711231 200003 1 033</t>
+  </si>
+  <si>
+    <t>email : perkim@lomboktimurkab.go.id Kode Pos 83612</t>
   </si>
 </sst>
 </file>
@@ -190,9 +190,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -204,18 +201,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,12 +581,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="A1:XFD1048576"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" customWidth="1"/>
@@ -607,19 +603,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:L77"/>
+  <dimension ref="A2:L57"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A11:L50"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A31" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="4" width="11.28515625" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="10" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="7.5703125" customWidth="1"/>
+    <col min="11" max="12" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -669,7 +667,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -698,1340 +696,713 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:12" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
+      <c r="A8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
     </row>
     <row r="9" spans="1:12" s="8" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="9">
         <f ca="1">TODAY()</f>
-        <v>45781</v>
+        <v>45783</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
     </row>
     <row r="11" spans="1:12" s="10" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A11" s="11">
+      <c r="A11" s="19">
         <f>Lembar1!A1</f>
         <v>0</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="20">
         <f>Lembar1!B1</f>
         <v>0</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17">
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20">
         <f>Lembar1!C1</f>
         <v>0</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17">
+      <c r="F11" s="20"/>
+      <c r="G11" s="20">
         <f>Lembar1!D1</f>
         <v>0</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17">
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20">
         <f>Lembar1!E1</f>
         <v>0</v>
       </c>
-      <c r="L11" s="17"/>
-    </row>
-    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A12" s="19">
+      <c r="L11" s="20"/>
+    </row>
+    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
         <f>Lembar1!A2</f>
         <v>0</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="18">
         <f>Lembar1!B2</f>
         <v>0</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18">
         <f>Lembar1!C2</f>
         <v>0</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20">
+      <c r="F12" s="18"/>
+      <c r="G12" s="18">
         <f>Lembar1!D2</f>
         <v>0</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20">
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18">
         <f>Lembar1!E2</f>
         <v>0</v>
       </c>
-      <c r="L12" s="20"/>
-    </row>
-    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A13" s="19">
+      <c r="L12" s="18"/>
+    </row>
+    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
         <f>Lembar1!A3</f>
         <v>0</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="18">
         <f>Lembar1!B3</f>
         <v>0</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20">
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18">
         <f>Lembar1!C3</f>
         <v>0</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20">
+      <c r="F13" s="18"/>
+      <c r="G13" s="18">
         <f>Lembar1!D3</f>
         <v>0</v>
       </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20">
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18">
         <f>Lembar1!E3</f>
         <v>0</v>
       </c>
-      <c r="L13" s="20"/>
-    </row>
-    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A14" s="19">
+      <c r="L13" s="18"/>
+    </row>
+    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
         <f>Lembar1!A4</f>
         <v>0</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="18">
         <f>Lembar1!B4</f>
         <v>0</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20">
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18">
         <f>Lembar1!C4</f>
         <v>0</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20">
+      <c r="F14" s="18"/>
+      <c r="G14" s="18">
         <f>Lembar1!D4</f>
         <v>0</v>
       </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20">
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18">
         <f>Lembar1!E4</f>
         <v>0</v>
       </c>
-      <c r="L14" s="20"/>
-    </row>
-    <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A15" s="19">
+      <c r="L14" s="18"/>
+    </row>
+    <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
         <f>Lembar1!A5</f>
         <v>0</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="18">
         <f>Lembar1!B5</f>
         <v>0</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20">
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18">
         <f>Lembar1!C5</f>
         <v>0</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20">
+      <c r="F15" s="18"/>
+      <c r="G15" s="18">
         <f>Lembar1!D5</f>
         <v>0</v>
       </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20">
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18">
         <f>Lembar1!E5</f>
         <v>0</v>
       </c>
-      <c r="L15" s="20"/>
-    </row>
-    <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A16" s="19">
+      <c r="L15" s="18"/>
+    </row>
+    <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
         <f>Lembar1!A6</f>
         <v>0</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="18">
         <f>Lembar1!B6</f>
         <v>0</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20">
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18">
         <f>Lembar1!C6</f>
         <v>0</v>
       </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20">
+      <c r="F16" s="18"/>
+      <c r="G16" s="18">
         <f>Lembar1!D6</f>
         <v>0</v>
       </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20">
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18">
         <f>Lembar1!E6</f>
         <v>0</v>
       </c>
-      <c r="L16" s="20"/>
-    </row>
-    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A17" s="19">
+      <c r="L16" s="18"/>
+    </row>
+    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
         <f>Lembar1!A7</f>
         <v>0</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="18">
         <f>Lembar1!B7</f>
         <v>0</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20">
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18">
         <f>Lembar1!C7</f>
         <v>0</v>
       </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20">
+      <c r="F17" s="18"/>
+      <c r="G17" s="18">
         <f>Lembar1!D7</f>
         <v>0</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20">
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18">
         <f>Lembar1!E7</f>
         <v>0</v>
       </c>
-      <c r="L17" s="20"/>
-    </row>
-    <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A18" s="19">
+      <c r="L17" s="18"/>
+    </row>
+    <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
         <f>Lembar1!A8</f>
         <v>0</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="18">
         <f>Lembar1!B8</f>
         <v>0</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20">
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18">
         <f>Lembar1!C8</f>
         <v>0</v>
       </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20">
+      <c r="F18" s="18"/>
+      <c r="G18" s="18">
         <f>Lembar1!D8</f>
         <v>0</v>
       </c>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20">
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18">
         <f>Lembar1!E8</f>
         <v>0</v>
       </c>
-      <c r="L18" s="20"/>
-    </row>
-    <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A19" s="19">
+      <c r="L18" s="18"/>
+    </row>
+    <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
         <f>Lembar1!A9</f>
         <v>0</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="18">
         <f>Lembar1!B9</f>
         <v>0</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20">
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18">
         <f>Lembar1!C9</f>
         <v>0</v>
       </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20">
+      <c r="F19" s="18"/>
+      <c r="G19" s="18">
         <f>Lembar1!D9</f>
         <v>0</v>
       </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20">
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18">
         <f>Lembar1!E9</f>
         <v>0</v>
       </c>
-      <c r="L19" s="20"/>
-    </row>
-    <row r="20" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A20" s="19">
+      <c r="L19" s="18"/>
+    </row>
+    <row r="20" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
         <f>Lembar1!A10</f>
         <v>0</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="18">
         <f>Lembar1!B10</f>
         <v>0</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20">
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18">
         <f>Lembar1!C10</f>
         <v>0</v>
       </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20">
+      <c r="F20" s="18"/>
+      <c r="G20" s="18">
         <f>Lembar1!D10</f>
         <v>0</v>
       </c>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20">
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18">
         <f>Lembar1!E10</f>
         <v>0</v>
       </c>
-      <c r="L20" s="20"/>
-    </row>
-    <row r="21" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A21" s="19">
+      <c r="L20" s="18"/>
+    </row>
+    <row r="21" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
         <f>Lembar1!A11</f>
         <v>0</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="18">
         <f>Lembar1!B11</f>
         <v>0</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20">
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18">
         <f>Lembar1!C11</f>
         <v>0</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20">
+      <c r="F21" s="18"/>
+      <c r="G21" s="18">
         <f>Lembar1!D11</f>
         <v>0</v>
       </c>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20">
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18">
         <f>Lembar1!E11</f>
         <v>0</v>
       </c>
-      <c r="L21" s="20"/>
-    </row>
-    <row r="22" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A22" s="19">
+      <c r="L21" s="18"/>
+    </row>
+    <row r="22" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
         <f>Lembar1!A12</f>
         <v>0</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="18">
         <f>Lembar1!B12</f>
         <v>0</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20">
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18">
         <f>Lembar1!C12</f>
         <v>0</v>
       </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20">
+      <c r="F22" s="18"/>
+      <c r="G22" s="18">
         <f>Lembar1!D12</f>
         <v>0</v>
       </c>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20">
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18">
         <f>Lembar1!E12</f>
         <v>0</v>
       </c>
-      <c r="L22" s="20"/>
-    </row>
-    <row r="23" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A23" s="19">
+      <c r="L22" s="18"/>
+    </row>
+    <row r="23" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
         <f>Lembar1!A13</f>
         <v>0</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="18">
         <f>Lembar1!B13</f>
         <v>0</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20">
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18">
         <f>Lembar1!C13</f>
         <v>0</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20">
+      <c r="F23" s="18"/>
+      <c r="G23" s="18">
         <f>Lembar1!D13</f>
         <v>0</v>
       </c>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20">
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18">
         <f>Lembar1!E13</f>
         <v>0</v>
       </c>
-      <c r="L23" s="20"/>
-    </row>
-    <row r="24" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A24" s="19">
+      <c r="L23" s="18"/>
+    </row>
+    <row r="24" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
         <f>Lembar1!A14</f>
         <v>0</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="18">
         <f>Lembar1!B14</f>
         <v>0</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20">
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18">
         <f>Lembar1!C14</f>
         <v>0</v>
       </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20">
+      <c r="F24" s="18"/>
+      <c r="G24" s="18">
         <f>Lembar1!D14</f>
         <v>0</v>
       </c>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20">
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18">
         <f>Lembar1!E14</f>
         <v>0</v>
       </c>
-      <c r="L24" s="20"/>
-    </row>
-    <row r="25" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A25" s="19">
+      <c r="L24" s="18"/>
+    </row>
+    <row r="25" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
         <f>Lembar1!A15</f>
         <v>0</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="18">
         <f>Lembar1!B15</f>
         <v>0</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20">
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18">
         <f>Lembar1!C15</f>
         <v>0</v>
       </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20">
+      <c r="F25" s="18"/>
+      <c r="G25" s="18">
         <f>Lembar1!D15</f>
         <v>0</v>
       </c>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20">
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18">
         <f>Lembar1!E15</f>
         <v>0</v>
       </c>
-      <c r="L25" s="20"/>
-    </row>
-    <row r="26" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A26" s="19">
+      <c r="L25" s="18"/>
+    </row>
+    <row r="26" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
         <f>Lembar1!A16</f>
         <v>0</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="18">
         <f>Lembar1!B16</f>
         <v>0</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20">
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18">
         <f>Lembar1!C16</f>
         <v>0</v>
       </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20">
+      <c r="F26" s="18"/>
+      <c r="G26" s="18">
         <f>Lembar1!D16</f>
         <v>0</v>
       </c>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20">
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18">
         <f>Lembar1!E16</f>
         <v>0</v>
       </c>
-      <c r="L26" s="20"/>
-    </row>
-    <row r="27" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A27" s="19">
+      <c r="L26" s="18"/>
+    </row>
+    <row r="27" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="17">
         <f>Lembar1!A17</f>
         <v>0</v>
       </c>
-      <c r="B27" s="20">
+      <c r="B27" s="18">
         <f>Lembar1!B17</f>
         <v>0</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20">
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18">
         <f>Lembar1!C17</f>
         <v>0</v>
       </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20">
+      <c r="F27" s="18"/>
+      <c r="G27" s="18">
         <f>Lembar1!D17</f>
         <v>0</v>
       </c>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20">
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18">
         <f>Lembar1!E17</f>
         <v>0</v>
       </c>
-      <c r="L27" s="20"/>
-    </row>
-    <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A28" s="19">
+      <c r="L27" s="18"/>
+    </row>
+    <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17">
         <f>Lembar1!A18</f>
         <v>0</v>
       </c>
-      <c r="B28" s="20">
+      <c r="B28" s="18">
         <f>Lembar1!B18</f>
         <v>0</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20">
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18">
         <f>Lembar1!C18</f>
         <v>0</v>
       </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20">
+      <c r="F28" s="18"/>
+      <c r="G28" s="18">
         <f>Lembar1!D18</f>
         <v>0</v>
       </c>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20">
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18">
         <f>Lembar1!E18</f>
         <v>0</v>
       </c>
-      <c r="L28" s="20"/>
-    </row>
-    <row r="29" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A29" s="19">
+      <c r="L28" s="18"/>
+    </row>
+    <row r="29" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="17">
         <f>Lembar1!A19</f>
         <v>0</v>
       </c>
-      <c r="B29" s="20">
+      <c r="B29" s="18">
         <f>Lembar1!B19</f>
         <v>0</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20">
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18">
         <f>Lembar1!C19</f>
         <v>0</v>
       </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20">
+      <c r="F29" s="18"/>
+      <c r="G29" s="18">
         <f>Lembar1!D19</f>
         <v>0</v>
       </c>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20">
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18">
         <f>Lembar1!E19</f>
         <v>0</v>
       </c>
-      <c r="L29" s="20"/>
-    </row>
-    <row r="30" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A30" s="19">
+      <c r="L29" s="18"/>
+    </row>
+    <row r="30" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17">
         <f>Lembar1!A20</f>
         <v>0</v>
       </c>
-      <c r="B30" s="20">
+      <c r="B30" s="18">
         <f>Lembar1!B20</f>
         <v>0</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20">
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18">
         <f>Lembar1!C20</f>
         <v>0</v>
       </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20">
+      <c r="F30" s="18"/>
+      <c r="G30" s="18">
         <f>Lembar1!D20</f>
         <v>0</v>
       </c>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20">
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18">
         <f>Lembar1!E20</f>
         <v>0</v>
       </c>
-      <c r="L30" s="20"/>
-    </row>
-    <row r="31" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A31" s="19">
+      <c r="L30" s="18"/>
+    </row>
+    <row r="31" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="17">
         <f>Lembar1!A21</f>
         <v>0</v>
       </c>
-      <c r="B31" s="20">
+      <c r="B31" s="18">
         <f>Lembar1!B21</f>
         <v>0</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20">
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18">
         <f>Lembar1!C21</f>
         <v>0</v>
       </c>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20">
+      <c r="F31" s="18"/>
+      <c r="G31" s="18">
         <f>Lembar1!D21</f>
         <v>0</v>
       </c>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20">
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18">
         <f>Lembar1!E21</f>
         <v>0</v>
       </c>
-      <c r="L31" s="20"/>
-    </row>
-    <row r="32" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A32" s="19">
-        <f>Lembar1!A22</f>
-        <v>0</v>
-      </c>
-      <c r="B32" s="20">
-        <f>Lembar1!B22</f>
-        <v>0</v>
-      </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20">
-        <f>Lembar1!C22</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20">
-        <f>Lembar1!D22</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20">
-        <f>Lembar1!E22</f>
-        <v>0</v>
-      </c>
-      <c r="L32" s="20"/>
-    </row>
-    <row r="33" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A33" s="19">
-        <f>Lembar1!A23</f>
-        <v>0</v>
-      </c>
-      <c r="B33" s="20">
-        <f>Lembar1!B23</f>
-        <v>0</v>
-      </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20">
-        <f>Lembar1!C23</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20">
-        <f>Lembar1!D23</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20">
-        <f>Lembar1!E23</f>
-        <v>0</v>
-      </c>
-      <c r="L33" s="20"/>
-    </row>
-    <row r="34" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A34" s="19">
-        <f>Lembar1!A24</f>
-        <v>0</v>
-      </c>
-      <c r="B34" s="20">
-        <f>Lembar1!B24</f>
-        <v>0</v>
-      </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20">
-        <f>Lembar1!C24</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20">
-        <f>Lembar1!D24</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20">
-        <f>Lembar1!E24</f>
-        <v>0</v>
-      </c>
-      <c r="L34" s="20"/>
-    </row>
-    <row r="35" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A35" s="19">
-        <f>Lembar1!A25</f>
-        <v>0</v>
-      </c>
-      <c r="B35" s="20">
-        <f>Lembar1!B25</f>
-        <v>0</v>
-      </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20">
-        <f>Lembar1!C25</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20">
-        <f>Lembar1!D25</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20">
-        <f>Lembar1!E25</f>
-        <v>0</v>
-      </c>
-      <c r="L35" s="20"/>
-    </row>
-    <row r="36" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A36" s="19">
-        <f>Lembar1!A26</f>
-        <v>0</v>
-      </c>
-      <c r="B36" s="20">
-        <f>Lembar1!B26</f>
-        <v>0</v>
-      </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20">
-        <f>Lembar1!C26</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20">
-        <f>Lembar1!D26</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20">
-        <f>Lembar1!E26</f>
-        <v>0</v>
-      </c>
-      <c r="L36" s="20"/>
-    </row>
-    <row r="37" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A37" s="19">
-        <f>Lembar1!A27</f>
-        <v>0</v>
-      </c>
-      <c r="B37" s="20">
-        <f>Lembar1!B27</f>
-        <v>0</v>
-      </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20">
-        <f>Lembar1!C27</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20">
-        <f>Lembar1!D27</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20">
-        <f>Lembar1!E27</f>
-        <v>0</v>
-      </c>
-      <c r="L37" s="20"/>
-    </row>
-    <row r="38" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A38" s="19">
-        <f>Lembar1!A28</f>
-        <v>0</v>
-      </c>
-      <c r="B38" s="20">
-        <f>Lembar1!B28</f>
-        <v>0</v>
-      </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20">
-        <f>Lembar1!C28</f>
-        <v>0</v>
-      </c>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20">
-        <f>Lembar1!D28</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20">
-        <f>Lembar1!E28</f>
-        <v>0</v>
-      </c>
-      <c r="L38" s="20"/>
-    </row>
-    <row r="39" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A39" s="19">
-        <f>Lembar1!A29</f>
-        <v>0</v>
-      </c>
-      <c r="B39" s="20">
-        <f>Lembar1!B29</f>
-        <v>0</v>
-      </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20">
-        <f>Lembar1!C29</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20">
-        <f>Lembar1!D29</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20">
-        <f>Lembar1!E29</f>
-        <v>0</v>
-      </c>
-      <c r="L39" s="20"/>
-    </row>
-    <row r="40" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A40" s="19">
-        <f>Lembar1!A30</f>
-        <v>0</v>
-      </c>
-      <c r="B40" s="20">
-        <f>Lembar1!B30</f>
-        <v>0</v>
-      </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20">
-        <f>Lembar1!C30</f>
-        <v>0</v>
-      </c>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20">
-        <f>Lembar1!D30</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20">
-        <f>Lembar1!E30</f>
-        <v>0</v>
-      </c>
-      <c r="L40" s="20"/>
-    </row>
-    <row r="41" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A41" s="19">
-        <f>Lembar1!A31</f>
-        <v>0</v>
-      </c>
-      <c r="B41" s="20">
-        <f>Lembar1!B31</f>
-        <v>0</v>
-      </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20">
-        <f>Lembar1!C31</f>
-        <v>0</v>
-      </c>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20">
-        <f>Lembar1!D31</f>
-        <v>0</v>
-      </c>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20">
-        <f>Lembar1!E31</f>
-        <v>0</v>
-      </c>
-      <c r="L41" s="20"/>
-    </row>
-    <row r="42" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A42" s="19">
-        <f>Lembar1!A32</f>
-        <v>0</v>
-      </c>
-      <c r="B42" s="20">
-        <f>Lembar1!B32</f>
-        <v>0</v>
-      </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20">
-        <f>Lembar1!C32</f>
-        <v>0</v>
-      </c>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20">
-        <f>Lembar1!D32</f>
-        <v>0</v>
-      </c>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20">
-        <f>Lembar1!E32</f>
-        <v>0</v>
-      </c>
-      <c r="L42" s="20"/>
-    </row>
-    <row r="43" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A43" s="19">
-        <f>Lembar1!A33</f>
-        <v>0</v>
-      </c>
-      <c r="B43" s="20">
-        <f>Lembar1!B33</f>
-        <v>0</v>
-      </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20">
-        <f>Lembar1!C33</f>
-        <v>0</v>
-      </c>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20">
-        <f>Lembar1!D33</f>
-        <v>0</v>
-      </c>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20">
-        <f>Lembar1!E33</f>
-        <v>0</v>
-      </c>
-      <c r="L43" s="20"/>
-    </row>
-    <row r="44" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A44" s="19">
-        <f>Lembar1!A34</f>
-        <v>0</v>
-      </c>
-      <c r="B44" s="20">
-        <f>Lembar1!B34</f>
-        <v>0</v>
-      </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20">
-        <f>Lembar1!C34</f>
-        <v>0</v>
-      </c>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20">
-        <f>Lembar1!D34</f>
-        <v>0</v>
-      </c>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20">
-        <f>Lembar1!E34</f>
-        <v>0</v>
-      </c>
-      <c r="L44" s="20"/>
-    </row>
-    <row r="45" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A45" s="19">
-        <f>Lembar1!A35</f>
-        <v>0</v>
-      </c>
-      <c r="B45" s="20">
-        <f>Lembar1!B35</f>
-        <v>0</v>
-      </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20">
-        <f>Lembar1!C35</f>
-        <v>0</v>
-      </c>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20">
-        <f>Lembar1!D35</f>
-        <v>0</v>
-      </c>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20">
-        <f>Lembar1!E35</f>
-        <v>0</v>
-      </c>
-      <c r="L45" s="20"/>
-    </row>
-    <row r="46" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A46" s="19">
-        <f>Lembar1!A36</f>
-        <v>0</v>
-      </c>
-      <c r="B46" s="20">
-        <f>Lembar1!B36</f>
-        <v>0</v>
-      </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20">
-        <f>Lembar1!C36</f>
-        <v>0</v>
-      </c>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20">
-        <f>Lembar1!D36</f>
-        <v>0</v>
-      </c>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20">
-        <f>Lembar1!E36</f>
-        <v>0</v>
-      </c>
-      <c r="L46" s="20"/>
-    </row>
-    <row r="47" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A47" s="19">
-        <f>Lembar1!A37</f>
-        <v>0</v>
-      </c>
-      <c r="B47" s="20">
-        <f>Lembar1!B37</f>
-        <v>0</v>
-      </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20">
-        <f>Lembar1!C37</f>
-        <v>0</v>
-      </c>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20">
-        <f>Lembar1!D37</f>
-        <v>0</v>
-      </c>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20">
-        <f>Lembar1!E37</f>
-        <v>0</v>
-      </c>
-      <c r="L47" s="20"/>
-    </row>
-    <row r="48" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A48" s="19">
-        <f>Lembar1!A38</f>
-        <v>0</v>
-      </c>
-      <c r="B48" s="20">
-        <f>Lembar1!B38</f>
-        <v>0</v>
-      </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20">
-        <f>Lembar1!C38</f>
-        <v>0</v>
-      </c>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20">
-        <f>Lembar1!D38</f>
-        <v>0</v>
-      </c>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20">
-        <f>Lembar1!E38</f>
-        <v>0</v>
-      </c>
-      <c r="L48" s="20"/>
-    </row>
-    <row r="49" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A49" s="19">
-        <f>Lembar1!A39</f>
-        <v>0</v>
-      </c>
-      <c r="B49" s="20">
-        <f>Lembar1!B39</f>
-        <v>0</v>
-      </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20">
-        <f>Lembar1!C39</f>
-        <v>0</v>
-      </c>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20">
-        <f>Lembar1!D39</f>
-        <v>0</v>
-      </c>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20">
-        <f>Lembar1!E39</f>
-        <v>0</v>
-      </c>
-      <c r="L49" s="20"/>
-    </row>
-    <row r="50" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A50" s="19">
-        <f>Lembar1!A40</f>
-        <v>0</v>
-      </c>
-      <c r="B50" s="20">
-        <f>Lembar1!B40</f>
-        <v>0</v>
-      </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20">
-        <f>Lembar1!C40</f>
-        <v>0</v>
-      </c>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20">
-        <f>Lembar1!D40</f>
-        <v>0</v>
-      </c>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20">
-        <f>Lembar1!E40</f>
-        <v>0</v>
-      </c>
-      <c r="L50" s="20"/>
-    </row>
-    <row r="54" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="G54" s="8" t="s">
+      <c r="L31" s="18"/>
+    </row>
+    <row r="34" spans="7:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="G34" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="16">
+        <f ca="1">TODAY()</f>
+        <v>45783</v>
+      </c>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+    </row>
+    <row r="35" spans="7:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="H35" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H54" s="18">
-        <f ca="1">TODAY()</f>
-        <v>45781</v>
-      </c>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-    </row>
-    <row r="55" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="H55" s="12" t="s">
+      <c r="I35" s="12"/>
+    </row>
+    <row r="36" spans="7:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="H36" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I55" s="13"/>
-    </row>
-    <row r="56" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="H56" s="12" t="s">
+      <c r="I36" s="12"/>
+    </row>
+    <row r="37" spans="7:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="H37" s="7"/>
+      <c r="I37" s="12"/>
+    </row>
+    <row r="38" spans="7:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="H38" s="7"/>
+      <c r="I38" s="12"/>
+    </row>
+    <row r="39" spans="7:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="H39" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I56" s="13"/>
-    </row>
-    <row r="57" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="H57" s="7"/>
-      <c r="I57" s="13"/>
-    </row>
-    <row r="58" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="H58" s="7"/>
-      <c r="I58" s="13"/>
-    </row>
-    <row r="59" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="H59" s="7" t="s">
+      <c r="I39" s="12"/>
+    </row>
+    <row r="40" spans="7:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="H40" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I59" s="13"/>
-    </row>
-    <row r="60" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="H60" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I60" s="13"/>
-    </row>
-    <row r="71" spans="8:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="H71" s="14"/>
-    </row>
-    <row r="72" spans="8:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="H72" s="15"/>
-    </row>
-    <row r="73" spans="8:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="H73" s="15"/>
-    </row>
-    <row r="74" spans="8:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="H74" s="15"/>
-    </row>
-    <row r="75" spans="8:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="H75" s="15"/>
-    </row>
-    <row r="76" spans="8:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="H76" s="15"/>
-    </row>
-    <row r="77" spans="8:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="H77" s="15"/>
+      <c r="I40" s="12"/>
+    </row>
+    <row r="51" spans="8:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="H51" s="13"/>
+    </row>
+    <row r="52" spans="8:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="H52" s="14"/>
+    </row>
+    <row r="53" spans="8:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="H53" s="14"/>
+    </row>
+    <row r="54" spans="8:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="H54" s="14"/>
+    </row>
+    <row r="55" spans="8:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="H55" s="14"/>
+    </row>
+    <row r="56" spans="8:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="H56" s="14"/>
+    </row>
+    <row r="57" spans="8:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="H57" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="K36:L36"/>
+  <mergeCells count="86">
+    <mergeCell ref="H34:J34"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:J31"/>
     <mergeCell ref="K31:L31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:L33"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="G28:J28"/>
@@ -2116,7 +1487,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>